--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按登记注册类型分限额以上零售业企业商品出口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按登记注册类型分限额以上零售业企业商品出口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1001 +598,933 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0699</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3.31686</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.20557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41.67108</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.07597</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>6.19732</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2609</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.39283</v>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>0.05285</v>
+      </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>2.51209</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.45924</v>
+      </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>13.01432</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.17165</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13.94097</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>16.90439</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>54.3</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.2704</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>16.2058</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="I3" t="n">
+        <v>51.2931</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>4.8534</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>2.6373</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.3247</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16.2058</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>0.0564</v>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0.1798</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1234</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>20.6984</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.0519</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2045</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>22.9771</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>6.0971</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0.3876</v>
+      </c>
       <c r="AG3" t="n">
-        <v>17.6</v>
+        <v>54.1101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0727</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.28627</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>2.38445</v>
+        <v>14.16333</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.3786</v>
+        <v>1.66182</v>
       </c>
       <c r="I4" t="n">
-        <v>21.79041</v>
+        <v>50.96815</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>7.09936</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>5.98597</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.21998</v>
+      </c>
       <c r="O4" t="n">
-        <v>0.27842</v>
+        <v>2.48501</v>
       </c>
       <c r="P4" t="n">
-        <v>0.18013</v>
+        <v>1.97876</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38445</v>
+        <v>14.19677</v>
       </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>1.90436</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.930899999999999</v>
+      </c>
       <c r="U4" t="n">
-        <v>0.06933</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+        <v>11.54405</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.70879</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.46831</v>
+      </c>
       <c r="X4" t="n">
-        <v>6.70289</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>25.08898</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.65738</v>
+      </c>
       <c r="Z4" t="n">
-        <v>0.7321</v>
+        <v>0.45228</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.48726</v>
+        <v>26.66695</v>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>4.38497</v>
+        <v>2.33814</v>
       </c>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>0.1085</v>
+      </c>
       <c r="AG4" t="n">
-        <v>22.1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0699</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1.44792</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>3.31686</v>
+        <v>13.96491</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1.20557</v>
+        <v>0.23299</v>
       </c>
       <c r="I5" t="n">
-        <v>41.67108</v>
+        <v>46.34946</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>0.07597</v>
+        <v>0.95282</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>6.19732</v>
+        <v>0.8176099999999999</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.3308</v>
+        <v>2.8</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2609</v>
+        <v>1.41821</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.39283</v>
+        <v>14.91773</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.05285</v>
+        <v>0.05707</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2.51209</v>
+        <v>0.5915899999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>2.45924</v>
+        <v>0.53452</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>13.01432</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.17165</v>
-      </c>
+        <v>23.30124</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.755</v>
+        <v>0.19466</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.94097</v>
+        <v>23.51616</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>16.90439</v>
+        <v>6.75617</v>
       </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>0.1088</v>
+      </c>
       <c r="AG5" t="n">
-        <v>44.5</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.2704</v>
+        <v>0.54026</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>16.2058</v>
+        <v>50.10185</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.772</v>
+        <v>0.06827</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2931</v>
+        <v>101.39792</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.16197</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>4.8534</v>
+        <v>1.40777</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>2.6373</v>
+        <v>1.535</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3247</v>
+        <v>0.99474</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.2058</v>
+        <v>50.26382</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.0564</v>
+        <v>0.77118</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.1798</v>
+        <v>1.58286</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1234</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>0.79052</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.00012</v>
+      </c>
       <c r="X6" t="n">
-        <v>20.6984</v>
+        <v>44.66163</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.0519</v>
+        <v>0.05732</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2045</v>
+        <v>0.32743</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.9771</v>
+        <v>45.0465</v>
       </c>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.0799</v>
+      </c>
       <c r="AD6" t="n">
-        <v>6.0971</v>
+        <v>4.40376</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.3876</v>
+        <v>0.1279</v>
       </c>
       <c r="AG6" t="n">
-        <v>54.1101</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.28627</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.1752</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1834</v>
+      </c>
       <c r="E7" t="n">
-        <v>14.16333</v>
+        <v>57.3438</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1.66182</v>
+        <v>0.174</v>
       </c>
       <c r="I7" t="n">
-        <v>50.96815</v>
+        <v>84.9704</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.0854</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>5.98597</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.21998</v>
-      </c>
+        <v>0.9926</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>2.48501</v>
+        <v>1.8096</v>
       </c>
       <c r="P7" t="n">
-        <v>1.97876</v>
+        <v>1.451</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.19677</v>
+        <v>57.4293</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.90436</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.930899999999999</v>
-      </c>
+        <v>0.1451</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>11.54405</v>
+        <v>1.3151</v>
       </c>
       <c r="V7" t="n">
-        <v>0.70879</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.46831</v>
-      </c>
+        <v>1.1699</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>25.08898</v>
+        <v>21.3369</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.65738</v>
+        <v>0.3427</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.45228</v>
+        <v>0.3821</v>
       </c>
       <c r="AA7" t="n">
-        <v>26.66695</v>
+        <v>22.0618</v>
       </c>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0.4338</v>
+      </c>
       <c r="AD7" t="n">
-        <v>2.33814</v>
+        <v>3.6021</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.1085</v>
+        <v>0.2771</v>
       </c>
       <c r="AG7" t="n">
-        <v>65</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.44792</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.1076</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2284</v>
+      </c>
       <c r="E8" t="n">
-        <v>13.96491</v>
+        <v>71.16670000000001</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.23299</v>
+        <v>0.0706</v>
       </c>
       <c r="I8" t="n">
-        <v>46.34946</v>
+        <v>111.6234</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>0.95282</v>
+        <v>5.1112</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>0.8176099999999999</v>
+        <v>0.8508</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>2.8</v>
+        <v>2.761</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41821</v>
+        <v>2.4251</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.91773</v>
+        <v>76.2778</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.05707</v>
+        <v>0.1363</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.5915899999999999</v>
+        <v>1.4812</v>
       </c>
       <c r="V8" t="n">
-        <v>0.53452</v>
+        <v>1.3449</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>23.30124</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>0.19466</v>
-      </c>
+        <v>25.0187</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>23.51616</v>
+        <v>25.0882</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>6.75617</v>
+        <v>9.2118</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>0.1088</v>
+        <v>0.1246</v>
       </c>
       <c r="AG8" t="n">
-        <v>49.8</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.54026</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.137</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.089</v>
+      </c>
       <c r="E9" t="n">
-        <v>50.10185</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>23.641</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.585</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>0.06827</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>101.39792</v>
+        <v>65.53100000000001</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>0.16197</v>
+        <v>5.735</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1.40777</v>
+        <v>1.012</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.535</v>
+        <v>1.706</v>
       </c>
       <c r="P9" t="n">
-        <v>0.99474</v>
+        <v>1.481</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.26382</v>
+        <v>29.376</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.77118</v>
+        <v>0.857</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.58286</v>
+        <v>5.261</v>
       </c>
       <c r="V9" t="n">
-        <v>0.79052</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.00012</v>
-      </c>
+        <v>3.818</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>44.66163</v>
+        <v>33.781</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05732</v>
+        <v>0.241</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.32743</v>
+        <v>0.472</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.0465</v>
+        <v>34.495</v>
       </c>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
-        <v>0.0799</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>4.40376</v>
+        <v>0.647</v>
       </c>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
-        <v>0.1279</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>104.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.1752</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1834</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>57.3438</v>
+        <v>33.8</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>0.174</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>84.9704</v>
+        <v>79.7</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>0.0854</v>
+        <v>0.8</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.9926</v>
+        <v>0.6</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.8096</v>
+        <v>0.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.451</v>
+        <v>0.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.4293</v>
+        <v>34.6</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.1451</v>
+        <v>0.1</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.3151</v>
+        <v>0.4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1699</v>
+        <v>0.4</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>21.3369</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.3427</v>
-      </c>
+        <v>31.5</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>0.3821</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.0618</v>
+        <v>41.5</v>
       </c>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
-        <v>0.4338</v>
-      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>3.6021</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="n">
-        <v>0.2771</v>
-      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>88.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.1076</v>
+        <v>2.9148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2284</v>
+        <v>0.1064</v>
       </c>
       <c r="E11" t="n">
-        <v>71.16670000000001</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>25.6776</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2638</v>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0706</v>
+        <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>111.6234</v>
+        <v>84.84139999999999</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5.1112</v>
+        <v>13.1397</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.8508</v>
+        <v>0.4885</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>2.761</v>
+        <v>4.151</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4251</v>
+        <v>1.1298</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.2778</v>
+        <v>38.8174</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>0.1363</v>
+        <v>0.2237</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1.4812</v>
+        <v>0.8011</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3449</v>
+        <v>0.3136</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>25.0187</v>
+        <v>42.8885</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06850000000000001</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3184</v>
+      </c>
       <c r="AA11" t="n">
-        <v>25.0882</v>
+        <v>43.2967</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>9.2118</v>
+        <v>2.1283</v>
       </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="n">
-        <v>0.1246</v>
-      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>115.9</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.089</v>
-      </c>
+        <v>0.0549</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>23.641</v>
+        <v>22.3788</v>
       </c>
       <c r="F12" t="n">
-        <v>0.585</v>
+        <v>0.5091</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0.2546</v>
+      </c>
       <c r="I12" t="n">
-        <v>65.53100000000001</v>
+        <v>82.23220000000001</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5.735</v>
+        <v>0.6387</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1.012</v>
+        <v>0.4358</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1.706</v>
+        <v>0.4384</v>
       </c>
       <c r="P12" t="n">
-        <v>1.481</v>
+        <v>0.3576</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.376</v>
+        <v>23.0174</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>0.857</v>
+        <v>4.0723</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>5.261</v>
+        <v>6.7221</v>
       </c>
       <c r="V12" t="n">
-        <v>3.818</v>
+        <v>2.1407</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>33.781</v>
+        <v>55.9665</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.241</v>
+        <v>0.5596</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.472</v>
+        <v>0.8139</v>
       </c>
       <c r="AA12" t="n">
-        <v>34.495</v>
+        <v>57.34</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>0.647</v>
+        <v>0.3421</v>
       </c>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>0.8428</v>
+      </c>
       <c r="AG12" t="n">
-        <v>72.5</v>
+        <v>89.3925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>3.1252</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>30.8014</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0022</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>79.7</v>
+        <v>71.9756</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0.8</v>
+        <v>4.749</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0.125</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03</v>
+      </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>3.4153</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0.2601</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.6</v>
+        <v>35.5504</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
+        <v>0.1141</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0539</v>
+      </c>
       <c r="U13" t="n">
-        <v>0.4</v>
+        <v>1.7878</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4</v>
+        <v>1.6177</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>32.8676</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1057</v>
+      </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>0.4185</v>
       </c>
       <c r="AA13" t="n">
-        <v>41.5</v>
+        <v>33.3917</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>0.2416</v>
       </c>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>2.6669</v>
+      </c>
       <c r="AG13" t="n">
-        <v>80.59999999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>2.9148</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1064</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25.6776</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.2638</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>0.0611</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84.84139999999999</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>13.1397</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>0.4885</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>4.151</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.1298</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>38.8174</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>0.2237</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>0.8011</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.3136</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>42.8885</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.08989999999999999</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.3184</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>43.2967</v>
-      </c>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>2.1283</v>
-      </c>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>0.0549</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>22.3788</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5091</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="I15" t="n">
-        <v>82.23220000000001</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0.6387</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>0.4358</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>0.4384</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>23.0174</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>4.0723</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>6.7221</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.1407</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>55.9665</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.5596</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.8139</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>57.34</v>
-      </c>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>0.3421</v>
-      </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="n">
-        <v>0.8428</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>89.3925</v>
+        <v>77.1788</v>
       </c>
     </row>
   </sheetData>
